--- a/students.xlsx
+++ b/students.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>郭可欣</t>
   </si>
@@ -335,6 +335,14 @@
   </si>
   <si>
     <t>孙楚冰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -455,10 +463,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -736,10 +747,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -752,1015 +763,1023 @@
     <col min="6" max="16384" width="12.125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="8"/>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="8"/>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="8"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="8"/>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="C25" s="9"/>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="10"/>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="C33" s="11"/>
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="C34" s="10"/>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="C37" s="11"/>
       <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
-        <v>42</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
-        <v>43</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="10"/>
       <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="C41" s="11"/>
       <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="C42" s="10"/>
       <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="14">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="C44" s="11"/>
       <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="14">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="14">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="C47" s="10"/>
       <c r="D47" s="10"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="14">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="C49" s="11"/>
       <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="14">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="C50" s="10"/>
       <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="14">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="C51" s="11"/>
       <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="14">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="C52" s="12"/>
       <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="14">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="C53" s="10"/>
       <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="14">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="C54" s="11"/>
       <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="14">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="14">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="14">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="14">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="14">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="14">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="14">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="14">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="14">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="C63" s="10"/>
       <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="14">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="C64" s="11"/>
       <c r="D64" s="10"/>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="14">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="14">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="14">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="14">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="14">
-        <v>76</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="14">
-        <v>77</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="14">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="C71" s="10"/>
       <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="14">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="14">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="C73" s="11"/>
       <c r="D73" s="10"/>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="14">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="C74" s="10"/>
       <c r="D74" s="10"/>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="14">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="10"/>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="14">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="10"/>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="14">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="10"/>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="14">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="14">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="10"/>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="14">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="10"/>
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="14">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="14">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="10"/>
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="14">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="10"/>
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="14">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="10"/>
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="14">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" s="10"/>
+        <v>88</v>
+      </c>
+      <c r="C85" s="11"/>
       <c r="D85" s="10"/>
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="14">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="14">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="14">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="10"/>
+        <v>85</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="14">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C89" s="10"/>
+        <v>67</v>
+      </c>
+      <c r="C89" s="11"/>
       <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="14">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C90" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="C90" s="10"/>
       <c r="D90" s="10"/>
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="14">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C91" s="11"/>
+        <v>89</v>
+      </c>
+      <c r="C91" s="4"/>
       <c r="D91" s="10"/>
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="14">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="10"/>
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="14">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="10"/>
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="14">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="C94" s="11"/>
       <c r="D94" s="10"/>
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="14">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C95" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="C95" s="10"/>
       <c r="D95" s="10"/>
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="14">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C96" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="C96" s="11"/>
       <c r="D96" s="10"/>
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="14">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="D97" s="10"/>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="14">
+        <v>105</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="14">
         <v>106</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="10"/>
-    </row>
-    <row r="99" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="14">
+      <c r="C99" s="4"/>
+      <c r="D99" s="10"/>
+    </row>
+    <row r="100" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="14">
         <v>107</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="14">
+    <row r="101" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="14">
         <v>108</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="14">
+    <row r="102" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="14">
         <v>109</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="14">
+    <row r="103" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="14">
         <v>110</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>101</v>
       </c>
     </row>
